--- a/presentations schedule.xlsx
+++ b/presentations schedule.xlsx
@@ -9,12 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10644"/>
   </bookViews>
   <sheets>
     <sheet name="Project 1-Guided" sheetId="1" r:id="rId1"/>
     <sheet name="Project 2-CYO" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Project 1-Guided'!$A$1:$E$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Project 2-CYO'!$A$1:$F$23</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
   <si>
     <t>Group A</t>
   </si>
@@ -94,22 +98,20 @@
   </si>
   <si>
     <t>Date:</t>
+  </si>
+  <si>
+    <t>Guided project schedule</t>
+  </si>
+  <si>
+    <t>Choose Your Own (CYO) project schedule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,6 +129,30 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -153,7 +179,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,25 +187,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -460,543 +506,587 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="33.6" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A1" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.65">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B3" s="5">
         <v>45426</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B7" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" s="11">
         <v>0.34375</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="11">
         <v>0.34375</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C8" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="11">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="11">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C10" s="11">
         <v>0.375</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B11" s="11">
         <v>0.375</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C11" s="11">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D11" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B12" s="11">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="11">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B13" s="11">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C13" s="11">
         <v>0.40625</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B14" s="11">
         <v>0.40625</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C14" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="D14" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="11">
         <v>0.42708333333333331</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="11">
         <v>0.4375</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D16" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B17" s="11">
         <v>0.4375</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C17" s="11">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D17" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B18" s="11">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C18" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D18" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B19" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="11">
         <v>0.46875</v>
       </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D19" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B20" s="11">
         <v>0.46875</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="11">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D20" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B21" s="11">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C21" s="11">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.65">
+      <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="11">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="11">
         <v>0.5</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" s="10" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="33.6" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A1" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.65">
+      <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="7">
+      <c r="B3" s="5">
         <v>45427</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="3" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3" t="s">
+      <c r="E5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B7" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C7" s="11">
         <v>0.34375</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B8" s="11">
         <v>0.34375</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C8" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="D8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B9" s="11">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C9" s="11">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="D9" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B10" s="11">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C10" s="11">
         <v>0.375</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="D10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A11" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B11" s="11">
         <v>0.375</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C11" s="11">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="D11" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B12" s="11">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C12" s="11">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="D12" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A13" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B13" s="11">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C13" s="11">
         <v>0.40625</v>
       </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="D13" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A14" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B14" s="11">
         <v>0.40625</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C14" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="D14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A15" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.65">
+      <c r="A16" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B16" s="11">
         <v>0.42708333333333331</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C16" s="11">
         <v>0.4375</v>
       </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="D16" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A17" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B17" s="11">
         <v>0.4375</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C17" s="11">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="D17" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A18" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B18" s="11">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C18" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="D18" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A19" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B19" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C19" s="11">
         <v>0.46875</v>
       </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="D19" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B20" s="11">
         <v>0.46875</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C20" s="11">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="D20" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20" s="10"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B21" s="11">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C21" s="11">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="D21" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" s="10"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.65">
+      <c r="A22" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B22" s="11">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C22" s="11">
         <v>0.5</v>
       </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
+      <c r="D22" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/presentations schedule.xlsx
+++ b/presentations schedule.xlsx
@@ -16,8 +16,8 @@
     <sheet name="Project 2-CYO" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Project 1-Guided'!$A$1:$E$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Project 2-CYO'!$A$1:$F$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Project 1-Guided'!$A$1:$S$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Project 2-CYO'!$A$1:$R$21</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Group A</t>
   </si>
@@ -91,26 +91,29 @@
     <t>Break</t>
   </si>
   <si>
-    <t>Venue</t>
-  </si>
-  <si>
-    <t>Hybeflex</t>
-  </si>
-  <si>
     <t>Date:</t>
   </si>
   <si>
-    <t>Guided project schedule</t>
-  </si>
-  <si>
-    <t>Choose Your Own (CYO) project schedule</t>
+    <t>Milestone 4</t>
+  </si>
+  <si>
+    <t>Milestone 3</t>
+  </si>
+  <si>
+    <t>Milestone 1</t>
+  </si>
+  <si>
+    <t>Milestone 2</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,7 +123,7 @@
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -150,16 +153,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <u/>
-      <sz val="26"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +187,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -202,30 +235,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="15" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,587 +706,1140 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33.6" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="11.109375" style="3" customWidth="1"/>
+    <col min="2" max="3" width="11.21875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" style="3" customWidth="1"/>
+    <col min="5" max="16" width="8.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="25">
+        <v>45426</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+    </row>
+    <row r="2" spans="1:17" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A2" s="7"/>
+      <c r="B2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="29" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="3" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5">
-        <v>45426</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="10" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="D4" s="12">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12">
+        <v>10</v>
+      </c>
+      <c r="I4" s="12">
+        <v>10</v>
+      </c>
+      <c r="J4" s="12">
+        <v>10</v>
+      </c>
+      <c r="K4" s="12">
+        <v>10</v>
+      </c>
+      <c r="L4" s="12">
+        <v>10</v>
+      </c>
+      <c r="M4" s="12">
+        <v>5</v>
+      </c>
+      <c r="N4" s="12">
+        <v>5</v>
+      </c>
+      <c r="O4" s="12">
+        <v>5</v>
+      </c>
+      <c r="P4" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="38">
+        <f>SUM(D4:P4)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C5" s="5">
         <v>0.34375</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A8" s="10" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="15">
+        <f>SUM(D5:P5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B6" s="5">
         <v>0.34375</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C6" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A9" s="10" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="18">
+        <f t="shared" ref="Q6:Q20" si="0">SUM(D6:P6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B7" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C7" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A10" s="10" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B8" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C8" s="5">
         <v>0.375</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A11" s="10" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B9" s="5">
         <v>0.375</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C9" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A12" s="10" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B10" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C10" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A13" s="10" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B11" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C11" s="5">
         <v>0.40625</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A14" s="10" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B12" s="5">
         <v>0.40625</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C12" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A15" s="12" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A16" s="10" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B14" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C14" s="5">
         <v>0.4375</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A17" s="10" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B15" s="5">
         <v>0.4375</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C15" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A18" s="10" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B16" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C16" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A19" s="10" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B17" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C17" s="5">
         <v>0.46875</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A20" s="10" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B18" s="5">
         <v>0.46875</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C18" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A21" s="10" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B19" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C19" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.65">
-      <c r="A22" s="10" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B20" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C20" s="5">
         <v>0.5</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>21</v>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="21">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A15:D15"/>
+  <mergeCells count="6">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="53" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="33.6" x14ac:dyDescent="0.65"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.44140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="23.77734375" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="8.88671875" style="4"/>
+    <col min="1" max="1" width="9.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.21875" style="7" customWidth="1"/>
+    <col min="4" max="16" width="8.44140625" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="8.88671875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:17" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="25">
+        <v>45427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="35" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.65">
-      <c r="A3" s="3" t="s">
+      <c r="I3" s="36"/>
+      <c r="J3" s="37"/>
+      <c r="K3" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="5">
-        <v>45427</v>
-      </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A5" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A7" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="11">
+      <c r="D4" s="12">
+        <v>5</v>
+      </c>
+      <c r="E4" s="12">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12">
+        <v>10</v>
+      </c>
+      <c r="G4" s="12">
+        <v>5</v>
+      </c>
+      <c r="H4" s="12">
+        <v>10</v>
+      </c>
+      <c r="I4" s="12">
+        <v>10</v>
+      </c>
+      <c r="J4" s="12">
+        <v>10</v>
+      </c>
+      <c r="K4" s="12">
+        <v>10</v>
+      </c>
+      <c r="L4" s="12">
+        <v>10</v>
+      </c>
+      <c r="M4" s="12">
+        <v>5</v>
+      </c>
+      <c r="N4" s="12">
+        <v>5</v>
+      </c>
+      <c r="O4" s="12">
+        <v>5</v>
+      </c>
+      <c r="P4" s="12">
+        <v>5</v>
+      </c>
+      <c r="Q4" s="12">
+        <f>SUM(D4:P4)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="5">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C5" s="5">
         <v>0.34375</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A8" s="10" t="s">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22">
+        <f>SUM(D5:P5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B6" s="5">
         <v>0.34375</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C6" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A9" s="10" t="s">
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23">
+        <f t="shared" ref="Q6:Q20" si="0">SUM(D6:P6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B7" s="5">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C7" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A10" s="10" t="s">
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B8" s="5">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C8" s="5">
         <v>0.375</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A11" s="10" t="s">
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B9" s="5">
         <v>0.375</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C9" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D11" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A12" s="10" t="s">
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B10" s="5">
         <v>0.38541666666666669</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C10" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A13" s="10" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B11" s="5">
         <v>0.39583333333333331</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C11" s="5">
         <v>0.40625</v>
       </c>
-      <c r="D13" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A14" s="10" t="s">
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B12" s="5">
         <v>0.40625</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C12" s="5">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A15" s="12" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="14"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.65">
-      <c r="A16" s="10" t="s">
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B14" s="5">
         <v>0.42708333333333331</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C14" s="5">
         <v>0.4375</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A17" s="10" t="s">
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B15" s="5">
         <v>0.4375</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C15" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A18" s="10" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="23"/>
+      <c r="Q15" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B16" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C16" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A19" s="10" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="11">
+      <c r="B17" s="5">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C17" s="5">
         <v>0.46875</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A20" s="10" t="s">
+      <c r="D17" s="16"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B18" s="5">
         <v>0.46875</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C18" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="10"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A21" s="10" t="s">
+      <c r="D18" s="16"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="11">
+      <c r="B19" s="5">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C19" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="10"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.65">
-      <c r="A22" s="10" t="s">
+      <c r="D19" s="16"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B20" s="5">
         <v>0.48958333333333331</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C20" s="5">
         <v>0.5</v>
       </c>
-      <c r="D22" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="10"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A15:D15"/>
+  <mergeCells count="6">
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="87" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>